--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il34-Csf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il34-Csf1r.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.393664333333333</v>
+        <v>2.024860333333333</v>
       </c>
       <c r="H2">
-        <v>4.180993</v>
+        <v>6.074581</v>
       </c>
       <c r="I2">
-        <v>0.04358216200908329</v>
+        <v>0.06209502815843435</v>
       </c>
       <c r="J2">
-        <v>0.04358216200908328</v>
+        <v>0.06209502815843435</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.07422366666667</v>
+        <v>0.2649023333333334</v>
       </c>
       <c r="N2">
-        <v>66.22267100000001</v>
+        <v>0.7947070000000001</v>
       </c>
       <c r="O2">
-        <v>0.8730897844203874</v>
+        <v>0.07626253349831308</v>
       </c>
       <c r="P2">
-        <v>0.8730897844203873</v>
+        <v>0.07626253349831306</v>
       </c>
       <c r="Q2">
-        <v>30.76405821025589</v>
+        <v>0.5363902269741111</v>
       </c>
       <c r="R2">
-        <v>276.876523892303</v>
+        <v>4.827512042767</v>
       </c>
       <c r="S2">
-        <v>0.03805114043308493</v>
+        <v>0.004735524165011293</v>
       </c>
       <c r="T2">
-        <v>0.03805114043308492</v>
+        <v>0.004735524165011292</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.393664333333333</v>
+        <v>2.024860333333333</v>
       </c>
       <c r="H3">
-        <v>4.180993</v>
+        <v>6.074581</v>
       </c>
       <c r="I3">
-        <v>0.04358216200908329</v>
+        <v>0.06209502815843435</v>
       </c>
       <c r="J3">
-        <v>0.04358216200908328</v>
+        <v>0.06209502815843435</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.3705</v>
       </c>
       <c r="O3">
-        <v>0.05762133790721462</v>
+        <v>0.4194066525831247</v>
       </c>
       <c r="P3">
-        <v>0.05762133790721462</v>
+        <v>0.4194066525831247</v>
       </c>
       <c r="Q3">
-        <v>2.030336656277778</v>
+        <v>2.949884028944444</v>
       </c>
       <c r="R3">
-        <v>18.2730299065</v>
+        <v>26.5489562605</v>
       </c>
       <c r="S3">
-        <v>0.00251126248385236</v>
+        <v>0.02604306790198382</v>
       </c>
       <c r="T3">
-        <v>0.002511262483852359</v>
+        <v>0.02604306790198382</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.393664333333333</v>
+        <v>2.024860333333333</v>
       </c>
       <c r="H4">
-        <v>4.180993</v>
+        <v>6.074581</v>
       </c>
       <c r="I4">
-        <v>0.04358216200908329</v>
+        <v>0.06209502815843435</v>
       </c>
       <c r="J4">
-        <v>0.04358216200908328</v>
+        <v>0.06209502815843435</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>1.751822333333333</v>
       </c>
       <c r="N4">
-        <v>5.255466999999999</v>
+        <v>5.255467</v>
       </c>
       <c r="O4">
-        <v>0.06928887767239801</v>
+        <v>0.5043308139185624</v>
       </c>
       <c r="P4">
-        <v>0.06928887767239801</v>
+        <v>0.5043308139185623</v>
       </c>
       <c r="Q4">
-        <v>2.441452304303444</v>
+        <v>3.547195553814111</v>
       </c>
       <c r="R4">
-        <v>21.973070738731</v>
+        <v>31.924759984327</v>
       </c>
       <c r="S4">
-        <v>0.003019759092146004</v>
+        <v>0.03131643609143924</v>
       </c>
       <c r="T4">
-        <v>0.003019759092146003</v>
+        <v>0.03131643609143924</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>8.858461999999999</v>
       </c>
       <c r="I5">
-        <v>0.09233952939775501</v>
+        <v>0.09055216274676732</v>
       </c>
       <c r="J5">
-        <v>0.09233952939775501</v>
+        <v>0.09055216274676733</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.07422366666667</v>
+        <v>0.2649023333333334</v>
       </c>
       <c r="N5">
-        <v>66.22267100000001</v>
+        <v>0.7947070000000001</v>
       </c>
       <c r="O5">
-        <v>0.8730897844203874</v>
+        <v>0.07626253349831308</v>
       </c>
       <c r="P5">
-        <v>0.8730897844203873</v>
+        <v>0.07626253349831306</v>
       </c>
       <c r="Q5">
-        <v>65.18122384355577</v>
+        <v>0.7822090845148888</v>
       </c>
       <c r="R5">
-        <v>586.631014592002</v>
+        <v>7.039881760634</v>
       </c>
       <c r="S5">
-        <v>0.08062069981536595</v>
+        <v>0.00690573734482004</v>
       </c>
       <c r="T5">
-        <v>0.08062069981536595</v>
+        <v>0.00690573734482004</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>8.858461999999999</v>
       </c>
       <c r="I6">
-        <v>0.09233952939775501</v>
+        <v>0.09055216274676732</v>
       </c>
       <c r="J6">
-        <v>0.09233952939775501</v>
+        <v>0.09055216274676733</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.3705</v>
       </c>
       <c r="O6">
-        <v>0.05762133790721462</v>
+        <v>0.4194066525831247</v>
       </c>
       <c r="P6">
-        <v>0.05762133790721462</v>
+        <v>0.4194066525831247</v>
       </c>
       <c r="Q6">
         <v>4.301767574555555</v>
@@ -818,10 +818,10 @@
         <v>38.715908171</v>
       </c>
       <c r="S6">
-        <v>0.00532072722562122</v>
+        <v>0.037978179461784</v>
       </c>
       <c r="T6">
-        <v>0.00532072722562122</v>
+        <v>0.03797817946178401</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>8.858461999999999</v>
       </c>
       <c r="I7">
-        <v>0.09233952939775501</v>
+        <v>0.09055216274676732</v>
       </c>
       <c r="J7">
-        <v>0.09233952939775501</v>
+        <v>0.09055216274676733</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>1.751822333333333</v>
       </c>
       <c r="N7">
-        <v>5.255466999999999</v>
+        <v>5.255467</v>
       </c>
       <c r="O7">
-        <v>0.06928887767239801</v>
+        <v>0.5043308139185624</v>
       </c>
       <c r="P7">
-        <v>0.06928887767239801</v>
+        <v>0.5043308139185623</v>
       </c>
       <c r="Q7">
-        <v>5.172817190194888</v>
+        <v>5.172817190194889</v>
       </c>
       <c r="R7">
-        <v>46.55535471175399</v>
+        <v>46.555354711754</v>
       </c>
       <c r="S7">
-        <v>0.006398102356767847</v>
+        <v>0.04566824594016328</v>
       </c>
       <c r="T7">
-        <v>0.006398102356767847</v>
+        <v>0.04566824594016328</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>82.89412899999999</v>
       </c>
       <c r="I8">
-        <v>0.8640783085931617</v>
+        <v>0.8473528090947983</v>
       </c>
       <c r="J8">
-        <v>0.8640783085931617</v>
+        <v>0.8473528090947984</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.07422366666667</v>
+        <v>0.2649023333333334</v>
       </c>
       <c r="N8">
-        <v>66.22267100000001</v>
+        <v>0.7947070000000001</v>
       </c>
       <c r="O8">
-        <v>0.8730897844203874</v>
+        <v>0.07626253349831308</v>
       </c>
       <c r="P8">
-        <v>0.8730897844203873</v>
+        <v>0.07626253349831306</v>
       </c>
       <c r="Q8">
-        <v>609.9411813998399</v>
+        <v>7.319616063911445</v>
       </c>
       <c r="R8">
-        <v>5489.470632598559</v>
+        <v>65.876544575203</v>
       </c>
       <c r="S8">
-        <v>0.7544179441719365</v>
+        <v>0.06462127198848173</v>
       </c>
       <c r="T8">
-        <v>0.7544179441719364</v>
+        <v>0.06462127198848173</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>82.89412899999999</v>
       </c>
       <c r="I9">
-        <v>0.8640783085931617</v>
+        <v>0.8473528090947983</v>
       </c>
       <c r="J9">
-        <v>0.8640783085931617</v>
+        <v>0.8473528090947984</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>4.3705</v>
       </c>
       <c r="O9">
-        <v>0.05762133790721462</v>
+        <v>0.4194066525831247</v>
       </c>
       <c r="P9">
-        <v>0.05762133790721462</v>
+        <v>0.4194066525831247</v>
       </c>
       <c r="Q9">
         <v>40.25431008827777</v>
@@ -1004,10 +1004,10 @@
         <v>362.2887907945</v>
       </c>
       <c r="S9">
-        <v>0.04978934819774104</v>
+        <v>0.3553854052193568</v>
       </c>
       <c r="T9">
-        <v>0.04978934819774104</v>
+        <v>0.3553854052193569</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>82.89412899999999</v>
       </c>
       <c r="I10">
-        <v>0.8640783085931617</v>
+        <v>0.8473528090947983</v>
       </c>
       <c r="J10">
-        <v>0.8640783085931617</v>
+        <v>0.8473528090947984</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>1.751822333333333</v>
       </c>
       <c r="N10">
-        <v>5.255466999999999</v>
+        <v>5.255467</v>
       </c>
       <c r="O10">
-        <v>0.06928887767239801</v>
+        <v>0.5043308139185624</v>
       </c>
       <c r="P10">
-        <v>0.06928887767239801</v>
+        <v>0.5043308139185623</v>
       </c>
       <c r="Q10">
-        <v>48.40526216147143</v>
+        <v>48.40526216147144</v>
       </c>
       <c r="R10">
-        <v>435.6473594532429</v>
+        <v>435.647359453243</v>
       </c>
       <c r="S10">
-        <v>0.05987101622348416</v>
+        <v>0.4273461318869598</v>
       </c>
       <c r="T10">
-        <v>0.05987101622348416</v>
+        <v>0.4273461318869598</v>
       </c>
     </row>
   </sheetData>
